--- a/data/pca/factorExposure/factorExposure_2010-07-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-26.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01479319141107661</v>
+        <v>-0.01661004899330631</v>
       </c>
       <c r="C2">
-        <v>-0.0004890652049903741</v>
+        <v>-0.0008219017540553354</v>
       </c>
       <c r="D2">
-        <v>-0.009626254922249933</v>
+        <v>0.00706887122074995</v>
       </c>
       <c r="E2">
-        <v>0.0224197586909349</v>
+        <v>-0.002697778297490622</v>
       </c>
       <c r="F2">
-        <v>-0.05236869980642087</v>
+        <v>0.01154267958705124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1141118087363978</v>
+        <v>-0.09627937011540702</v>
       </c>
       <c r="C4">
-        <v>-0.08484724454340042</v>
+        <v>-0.01865576793866835</v>
       </c>
       <c r="D4">
-        <v>-0.006392599190515457</v>
+        <v>0.07439485034723105</v>
       </c>
       <c r="E4">
-        <v>0.1626133126074386</v>
+        <v>0.02726441273353753</v>
       </c>
       <c r="F4">
-        <v>-0.005162167436111897</v>
+        <v>-0.04073889007005414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.126477290857732</v>
+        <v>-0.1496147298517816</v>
       </c>
       <c r="C6">
-        <v>-0.05424178289500177</v>
+        <v>-0.02411496917620477</v>
       </c>
       <c r="D6">
-        <v>0.005693775032916553</v>
+        <v>-0.01669801137999703</v>
       </c>
       <c r="E6">
-        <v>0.04014962078480339</v>
+        <v>0.01156411484788786</v>
       </c>
       <c r="F6">
-        <v>0.05775998898136647</v>
+        <v>-0.04026895693031363</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06972832796387032</v>
+        <v>-0.06326352819578979</v>
       </c>
       <c r="C7">
-        <v>-0.08876265894541731</v>
+        <v>-0.001020071883201226</v>
       </c>
       <c r="D7">
-        <v>-0.006057754174570614</v>
+        <v>0.05049612236413668</v>
       </c>
       <c r="E7">
-        <v>0.02116664792080161</v>
+        <v>0.01593620510397282</v>
       </c>
       <c r="F7">
-        <v>-0.007753901965665275</v>
+        <v>-0.0580944315629539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0399556186400485</v>
+        <v>-0.06086608429859277</v>
       </c>
       <c r="C8">
-        <v>-0.006996104195940349</v>
+        <v>0.01253620426825574</v>
       </c>
       <c r="D8">
-        <v>-0.006939384420104602</v>
+        <v>0.02559154045162289</v>
       </c>
       <c r="E8">
-        <v>0.1140879771336282</v>
+        <v>0.008691676008297766</v>
       </c>
       <c r="F8">
-        <v>-0.03709766157163492</v>
+        <v>0.02224534808676232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09000568864909858</v>
+        <v>-0.0745545044631548</v>
       </c>
       <c r="C9">
-        <v>-0.06262953309706516</v>
+        <v>-0.01551069754905564</v>
       </c>
       <c r="D9">
-        <v>0.01285910557934523</v>
+        <v>0.07166418757609838</v>
       </c>
       <c r="E9">
-        <v>0.1367112974904512</v>
+        <v>0.01969801764681451</v>
       </c>
       <c r="F9">
-        <v>0.02028022952779158</v>
+        <v>-0.06189127816913631</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.126577317186981</v>
+        <v>-0.08990619564638502</v>
       </c>
       <c r="C10">
-        <v>0.1843100103286664</v>
+        <v>-0.01221475975470848</v>
       </c>
       <c r="D10">
-        <v>-0.01674396143973357</v>
+        <v>-0.1716729976197604</v>
       </c>
       <c r="E10">
-        <v>-0.06052170382099116</v>
+        <v>-0.03398816656092956</v>
       </c>
       <c r="F10">
-        <v>0.03275853302768345</v>
+        <v>0.05164019384886667</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06902796630000564</v>
+        <v>-0.08967684671616911</v>
       </c>
       <c r="C11">
-        <v>-0.05854561696064947</v>
+        <v>-0.01470327967392259</v>
       </c>
       <c r="D11">
-        <v>0.0418902484580406</v>
+        <v>0.1017352947388686</v>
       </c>
       <c r="E11">
-        <v>0.104918447462642</v>
+        <v>0.04006167082067464</v>
       </c>
       <c r="F11">
-        <v>0.007694650982464446</v>
+        <v>-0.02823220113650147</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07445998260371682</v>
+        <v>-0.09527532592640704</v>
       </c>
       <c r="C12">
-        <v>-0.06691661829940387</v>
+        <v>-0.01238056314085006</v>
       </c>
       <c r="D12">
-        <v>0.04879739544238006</v>
+        <v>0.1059762816145752</v>
       </c>
       <c r="E12">
-        <v>0.1242118169054418</v>
+        <v>0.03777764535020636</v>
       </c>
       <c r="F12">
-        <v>0.01755090654625731</v>
+        <v>-0.03188595081668504</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04810320737935609</v>
+        <v>-0.04472906932096918</v>
       </c>
       <c r="C13">
-        <v>-0.04257298847273963</v>
+        <v>-0.004819081960642883</v>
       </c>
       <c r="D13">
-        <v>-0.02029157717935721</v>
+        <v>0.03262574557028362</v>
       </c>
       <c r="E13">
-        <v>0.06191931291102193</v>
+        <v>-0.01545480981587441</v>
       </c>
       <c r="F13">
-        <v>0.001908795030308714</v>
+        <v>-0.02119429243987926</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04551473720677047</v>
+        <v>-0.02258577383645146</v>
       </c>
       <c r="C14">
-        <v>-0.0338015955754357</v>
+        <v>-0.01527161909095984</v>
       </c>
       <c r="D14">
-        <v>0.0109800265742475</v>
+        <v>0.02660908954744837</v>
       </c>
       <c r="E14">
-        <v>0.05988224186631606</v>
+        <v>0.01545009722776708</v>
       </c>
       <c r="F14">
-        <v>0.01554871079303784</v>
+        <v>-0.02632409313652708</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03072442272943685</v>
+        <v>-0.03376875930797339</v>
       </c>
       <c r="C15">
-        <v>-0.01854252879181079</v>
+        <v>-0.006596817221209543</v>
       </c>
       <c r="D15">
-        <v>-0.0634021931257738</v>
+        <v>0.03401979587547713</v>
       </c>
       <c r="E15">
-        <v>0.01088651819134598</v>
+        <v>0.005252840537997821</v>
       </c>
       <c r="F15">
-        <v>-0.01541538021580628</v>
+        <v>-0.03410916018342989</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08027156824247529</v>
+        <v>-0.0775534329397583</v>
       </c>
       <c r="C16">
-        <v>-0.07429104591839011</v>
+        <v>-0.006541746673524856</v>
       </c>
       <c r="D16">
-        <v>0.03725441784135533</v>
+        <v>0.1043920458951848</v>
       </c>
       <c r="E16">
-        <v>0.1027885902372189</v>
+        <v>0.05583428115357391</v>
       </c>
       <c r="F16">
-        <v>0.0219310581201314</v>
+        <v>-0.03616653383409629</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01585802382082432</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004185107989146951</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0255218803160722</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.0102570085084286</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03129471547814614</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04366024438885503</v>
+        <v>-0.06343074541620125</v>
       </c>
       <c r="C20">
-        <v>-0.02444514817639038</v>
+        <v>-0.004077340187220446</v>
       </c>
       <c r="D20">
-        <v>-0.02936608953316305</v>
+        <v>0.05883668193634664</v>
       </c>
       <c r="E20">
-        <v>0.05969664422818814</v>
+        <v>0.04791935063147749</v>
       </c>
       <c r="F20">
-        <v>0.01479176159989359</v>
+        <v>-0.03244330933906978</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03169298998380696</v>
+        <v>-0.03892242981186388</v>
       </c>
       <c r="C21">
-        <v>-0.02134328843923595</v>
+        <v>-0.008551472899730949</v>
       </c>
       <c r="D21">
-        <v>0.009601811089189371</v>
+        <v>0.03135936860181612</v>
       </c>
       <c r="E21">
-        <v>0.05340418337437788</v>
+        <v>-0.01550385704687734</v>
       </c>
       <c r="F21">
-        <v>0.0130396387542708</v>
+        <v>0.01681559003255761</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05071439733963155</v>
+        <v>-0.04266635433697236</v>
       </c>
       <c r="C22">
-        <v>-0.01770180313922541</v>
+        <v>-0.0007626179212438175</v>
       </c>
       <c r="D22">
-        <v>-0.656192047184324</v>
+        <v>-0.002374814929612942</v>
       </c>
       <c r="E22">
-        <v>-0.03604439600275469</v>
+        <v>0.03599393301658975</v>
       </c>
       <c r="F22">
-        <v>0.07561246918665815</v>
+        <v>0.02645264224786312</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05129853500935646</v>
+        <v>-0.04270408611386467</v>
       </c>
       <c r="C23">
-        <v>-0.01883762053302626</v>
+        <v>-0.0007857976851124319</v>
       </c>
       <c r="D23">
-        <v>-0.6583875378559209</v>
+        <v>-0.00219504407639529</v>
       </c>
       <c r="E23">
-        <v>-0.03049320059952223</v>
+        <v>0.03635941224371401</v>
       </c>
       <c r="F23">
-        <v>0.07487366673080958</v>
+        <v>0.02586804467624948</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07782881755058429</v>
+        <v>-0.08296235509281168</v>
       </c>
       <c r="C24">
-        <v>-0.07086910547069243</v>
+        <v>-0.006342757792932752</v>
       </c>
       <c r="D24">
-        <v>0.02940828416724139</v>
+        <v>0.1076109953416952</v>
       </c>
       <c r="E24">
-        <v>0.1070373668498691</v>
+        <v>0.04390282979552364</v>
       </c>
       <c r="F24">
-        <v>0.01979388160530681</v>
+        <v>-0.02877519433907337</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07663183230246992</v>
+        <v>-0.08758730845335104</v>
       </c>
       <c r="C25">
-        <v>-0.05289074458448358</v>
+        <v>-0.008643113222331134</v>
       </c>
       <c r="D25">
-        <v>0.04796117741043684</v>
+        <v>0.09237025274618102</v>
       </c>
       <c r="E25">
-        <v>0.112571688275629</v>
+        <v>0.02519193793451071</v>
       </c>
       <c r="F25">
-        <v>0.01704598157079611</v>
+        <v>-0.03828458427710676</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03622799209493035</v>
+        <v>-0.05746456761112264</v>
       </c>
       <c r="C26">
-        <v>-0.02262731576851843</v>
+        <v>-0.01593007651412451</v>
       </c>
       <c r="D26">
-        <v>-0.0152776039279081</v>
+        <v>0.02449504580537983</v>
       </c>
       <c r="E26">
-        <v>0.07416036076330876</v>
+        <v>0.02282271605501499</v>
       </c>
       <c r="F26">
-        <v>0.07273205455827456</v>
+        <v>-0.002751281160306839</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1464377955876299</v>
+        <v>-0.1358766329533682</v>
       </c>
       <c r="C28">
-        <v>0.277733623295159</v>
+        <v>-0.009577410809522886</v>
       </c>
       <c r="D28">
-        <v>0.004433710448394089</v>
+        <v>-0.2804029835496454</v>
       </c>
       <c r="E28">
-        <v>0.02085988860305789</v>
+        <v>-0.06910045170832886</v>
       </c>
       <c r="F28">
-        <v>-0.008568395799796661</v>
+        <v>-0.04748809740947586</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04283724585037021</v>
+        <v>-0.02784148103408733</v>
       </c>
       <c r="C29">
-        <v>-0.0311941090534055</v>
+        <v>-0.009537061865844394</v>
       </c>
       <c r="D29">
-        <v>0.01557432214076899</v>
+        <v>0.02507552441903603</v>
       </c>
       <c r="E29">
-        <v>0.05242594241378076</v>
+        <v>0.007882872193897364</v>
       </c>
       <c r="F29">
-        <v>0.01748398078773153</v>
+        <v>0.006709890282778312</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08704783504045814</v>
+        <v>-0.06793732785309461</v>
       </c>
       <c r="C30">
-        <v>-0.05809767221624131</v>
+        <v>-0.009111672194480218</v>
       </c>
       <c r="D30">
-        <v>0.01500756421169739</v>
+        <v>0.06678560072215353</v>
       </c>
       <c r="E30">
-        <v>0.2233014868830637</v>
+        <v>0.01912792340488875</v>
       </c>
       <c r="F30">
-        <v>0.1656444943248904</v>
+        <v>-0.1245282706436525</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02805004896842996</v>
+        <v>-0.04897882713482029</v>
       </c>
       <c r="C31">
-        <v>-0.05418964117180132</v>
+        <v>-0.01544089761168</v>
       </c>
       <c r="D31">
-        <v>-0.003781844962671939</v>
+        <v>0.02805752884753037</v>
       </c>
       <c r="E31">
-        <v>0.04335196266196759</v>
+        <v>0.02615278216449416</v>
       </c>
       <c r="F31">
-        <v>-0.0009531993721586554</v>
+        <v>0.00257600096535755</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06088813760239702</v>
+        <v>-0.04853273436914516</v>
       </c>
       <c r="C32">
-        <v>-0.003005076762249979</v>
+        <v>-0.001408221438449316</v>
       </c>
       <c r="D32">
-        <v>0.03785777958184035</v>
+        <v>0.01992941231360134</v>
       </c>
       <c r="E32">
-        <v>0.0943295291467722</v>
+        <v>0.02322318486580685</v>
       </c>
       <c r="F32">
-        <v>-0.02142809513894932</v>
+        <v>-0.006471172971854557</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0931908780429586</v>
+        <v>-0.09314862762992969</v>
       </c>
       <c r="C33">
-        <v>-0.06485272504753517</v>
+        <v>-0.01180993201591187</v>
       </c>
       <c r="D33">
-        <v>0.02220663512369169</v>
+        <v>0.08307506956312247</v>
       </c>
       <c r="E33">
-        <v>0.07040253054893759</v>
+        <v>0.04367497875798156</v>
       </c>
       <c r="F33">
-        <v>0.08022957022148944</v>
+        <v>-0.04411454845038346</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06912770429590093</v>
+        <v>-0.07016830893079962</v>
       </c>
       <c r="C34">
-        <v>-0.05508072240383759</v>
+        <v>-0.01400444543943837</v>
       </c>
       <c r="D34">
-        <v>0.04760805679359211</v>
+        <v>0.08704929383726775</v>
       </c>
       <c r="E34">
-        <v>0.08906663297538533</v>
+        <v>0.02564896488231267</v>
       </c>
       <c r="F34">
-        <v>0.01992090660936395</v>
+        <v>-0.053919792414946</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02369776717466816</v>
+        <v>-0.02433741678119072</v>
       </c>
       <c r="C35">
-        <v>-0.02674915734842482</v>
+        <v>-0.002487517927914672</v>
       </c>
       <c r="D35">
-        <v>0.0108441590668916</v>
+        <v>0.009927184614914875</v>
       </c>
       <c r="E35">
-        <v>0.01456572473195023</v>
+        <v>0.0128681539312238</v>
       </c>
       <c r="F35">
-        <v>0.02950388306036125</v>
+        <v>-0.0137252240190992</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02973329021327286</v>
+        <v>-0.02688508530851463</v>
       </c>
       <c r="C36">
-        <v>-0.02097399320707622</v>
+        <v>-0.007385919517422542</v>
       </c>
       <c r="D36">
-        <v>-0.01376187738180318</v>
+        <v>0.03811396786313541</v>
       </c>
       <c r="E36">
-        <v>0.07435181121975981</v>
+        <v>0.01615437588665372</v>
       </c>
       <c r="F36">
-        <v>0.03227040359729497</v>
+        <v>-0.01375180962423271</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0285609408599911</v>
+        <v>-0.003345364746114497</v>
       </c>
       <c r="C38">
-        <v>-0.05878133570710421</v>
+        <v>-0.0006593654112926171</v>
       </c>
       <c r="D38">
-        <v>-0.0165378307859765</v>
+        <v>0.004038801163263013</v>
       </c>
       <c r="E38">
-        <v>-0.1175467071563509</v>
+        <v>0.004824160404894712</v>
       </c>
       <c r="F38">
-        <v>0.05789428243907699</v>
+        <v>0.003669595541701148</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09406430901331454</v>
+        <v>-0.1133918883510809</v>
       </c>
       <c r="C39">
-        <v>-0.07336516932220147</v>
+        <v>-0.0206069844184922</v>
       </c>
       <c r="D39">
-        <v>0.1130510948298461</v>
+        <v>0.1404607064676587</v>
       </c>
       <c r="E39">
-        <v>0.1149241052358258</v>
+        <v>0.04857557580084079</v>
       </c>
       <c r="F39">
-        <v>0.06770905145054151</v>
+        <v>-0.04043691131526472</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02830132008367445</v>
+        <v>-0.0375420319730825</v>
       </c>
       <c r="C40">
-        <v>-0.06390337162072768</v>
+        <v>-0.008039248733329549</v>
       </c>
       <c r="D40">
-        <v>-0.01969801668073795</v>
+        <v>0.023517756182796</v>
       </c>
       <c r="E40">
-        <v>0.08639542611179032</v>
+        <v>0.00247126669710881</v>
       </c>
       <c r="F40">
-        <v>-0.01600478982615626</v>
+        <v>0.01447927071062368</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03115338634514285</v>
+        <v>-0.02645417369994454</v>
       </c>
       <c r="C41">
-        <v>-0.027924147863821</v>
+        <v>-0.006783266647486487</v>
       </c>
       <c r="D41">
-        <v>0.02857893387927062</v>
+        <v>0.01141406516541756</v>
       </c>
       <c r="E41">
-        <v>-0.004792996745300503</v>
+        <v>0.01113725181411636</v>
       </c>
       <c r="F41">
-        <v>0.009976508236584686</v>
+        <v>0.01282493167020169</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04912921487020767</v>
+        <v>-0.04355942700825601</v>
       </c>
       <c r="C43">
-        <v>-0.05509402123837018</v>
+        <v>-0.007450177805507452</v>
       </c>
       <c r="D43">
-        <v>-0.006033986729529887</v>
+        <v>0.0205857364223433</v>
       </c>
       <c r="E43">
-        <v>0.01341263041921886</v>
+        <v>0.02573139347558577</v>
       </c>
       <c r="F43">
-        <v>0.01238182197452883</v>
+        <v>0.01137530648764732</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09705158942651895</v>
+        <v>-0.07550833075681476</v>
       </c>
       <c r="C44">
-        <v>-0.08332931609099527</v>
+        <v>-0.02511701122932723</v>
       </c>
       <c r="D44">
-        <v>-0.05879800948785704</v>
+        <v>0.08851600815148877</v>
       </c>
       <c r="E44">
-        <v>0.1639713337865338</v>
+        <v>0.06317329743038438</v>
       </c>
       <c r="F44">
-        <v>0.03179367221941057</v>
+        <v>-0.1851970459302683</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04768687048569785</v>
+        <v>-0.02491673431856574</v>
       </c>
       <c r="C46">
-        <v>-0.04512993839803399</v>
+        <v>-0.004169550441912874</v>
       </c>
       <c r="D46">
-        <v>-0.03876897766623563</v>
+        <v>0.009008933280090966</v>
       </c>
       <c r="E46">
-        <v>0.02282194944416744</v>
+        <v>0.02167626153356026</v>
       </c>
       <c r="F46">
-        <v>0.01791600564421509</v>
+        <v>0.004444297320278952</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05011508167803529</v>
+        <v>-0.0530567772364198</v>
       </c>
       <c r="C47">
-        <v>-0.04561994411706961</v>
+        <v>-0.003418367970260054</v>
       </c>
       <c r="D47">
-        <v>-0.005661421554331454</v>
+        <v>0.01458671291426521</v>
       </c>
       <c r="E47">
-        <v>0.01693320539041965</v>
+        <v>0.02300068891457606</v>
       </c>
       <c r="F47">
-        <v>0.03637984482572432</v>
+        <v>0.04687704785677872</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04621131581815405</v>
+        <v>-0.04852655252795794</v>
       </c>
       <c r="C48">
-        <v>-0.01531143476117731</v>
+        <v>-0.003621833994383723</v>
       </c>
       <c r="D48">
-        <v>0.008435427059012006</v>
+        <v>0.04113594579404375</v>
       </c>
       <c r="E48">
-        <v>0.08573777722226419</v>
+        <v>-0.009472431462862571</v>
       </c>
       <c r="F48">
-        <v>0.02275533245389579</v>
+        <v>-0.01972215072081419</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2358753974797541</v>
+        <v>-0.2081588338052014</v>
       </c>
       <c r="C49">
-        <v>-0.06360388605196997</v>
+        <v>-0.01734693177422808</v>
       </c>
       <c r="D49">
-        <v>0.04032122317420223</v>
+        <v>-0.006482523225555659</v>
       </c>
       <c r="E49">
-        <v>-0.3091316701190517</v>
+        <v>0.04687429046647382</v>
       </c>
       <c r="F49">
-        <v>-0.04691959150056552</v>
+        <v>-0.03251256893718674</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03733300414330713</v>
+        <v>-0.04889767722515265</v>
       </c>
       <c r="C50">
-        <v>-0.04533788589749636</v>
+        <v>-0.01174437151442323</v>
       </c>
       <c r="D50">
-        <v>0.01235151260260283</v>
+        <v>0.02745103398892531</v>
       </c>
       <c r="E50">
-        <v>0.05268909471704599</v>
+        <v>0.02944410636793617</v>
       </c>
       <c r="F50">
-        <v>0.05386524866156251</v>
+        <v>-0.005735283849776216</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03409115932270323</v>
+        <v>-0.00371285301684684</v>
       </c>
       <c r="C51">
-        <v>-0.004403953638435147</v>
+        <v>-0.0008573617973869108</v>
       </c>
       <c r="D51">
-        <v>0.000729434374159042</v>
+        <v>-0.001493499605221184</v>
       </c>
       <c r="E51">
-        <v>-0.0557246259474176</v>
+        <v>0.001793266809343223</v>
       </c>
       <c r="F51">
-        <v>-0.05670716616013585</v>
+        <v>-0.003932691006186822</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.005768424670670861</v>
+        <v>-0.1399769597464984</v>
       </c>
       <c r="C52">
-        <v>-0.004021866500184403</v>
+        <v>-0.01238144953407902</v>
       </c>
       <c r="D52">
-        <v>0.01822001442707245</v>
+        <v>0.05434260609668118</v>
       </c>
       <c r="E52">
-        <v>0.01730667585033127</v>
+        <v>0.01334041039887173</v>
       </c>
       <c r="F52">
-        <v>-0.03099919694320312</v>
+        <v>-0.02876447805802645</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1435026857766083</v>
+        <v>-0.1715487021233131</v>
       </c>
       <c r="C53">
-        <v>-0.06125508466357817</v>
+        <v>-0.01504745536365529</v>
       </c>
       <c r="D53">
-        <v>-0.007955507020032311</v>
+        <v>0.02267083349814444</v>
       </c>
       <c r="E53">
-        <v>-0.09004911039674114</v>
+        <v>0.03857253434475209</v>
       </c>
       <c r="F53">
-        <v>0.02199561517444135</v>
+        <v>-0.05623675488314398</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05879460627179321</v>
+        <v>-0.02218780586262302</v>
       </c>
       <c r="C54">
-        <v>-0.03226302649036483</v>
+        <v>-0.0130491457081683</v>
       </c>
       <c r="D54">
-        <v>-0.008527700629191207</v>
+        <v>0.02780690315845339</v>
       </c>
       <c r="E54">
-        <v>0.1462446683058745</v>
+        <v>0.01362822151845106</v>
       </c>
       <c r="F54">
-        <v>0.01650038235820979</v>
+        <v>-0.002165469963016512</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08409340493658633</v>
+        <v>-0.1136330713579372</v>
       </c>
       <c r="C55">
-        <v>-0.05315061748534476</v>
+        <v>-0.01431481758886419</v>
       </c>
       <c r="D55">
-        <v>0.03414945162093354</v>
+        <v>0.02014161113033553</v>
       </c>
       <c r="E55">
-        <v>-0.01824912213138898</v>
+        <v>0.02934895925813815</v>
       </c>
       <c r="F55">
-        <v>0.005057530649855517</v>
+        <v>-0.04718279371032506</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1319448545145689</v>
+        <v>-0.1759829335449992</v>
       </c>
       <c r="C56">
-        <v>-0.08983209766469821</v>
+        <v>-0.01228643483711976</v>
       </c>
       <c r="D56">
-        <v>0.01270627514661271</v>
+        <v>0.02218975356284061</v>
       </c>
       <c r="E56">
-        <v>-0.04111269517293702</v>
+        <v>0.04248441494330249</v>
       </c>
       <c r="F56">
-        <v>0.03080589448847042</v>
+        <v>-0.02494716798097749</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03473814338420173</v>
+        <v>-0.04736138498614503</v>
       </c>
       <c r="C58">
-        <v>-0.03086346808176766</v>
+        <v>-0.004143277814690891</v>
       </c>
       <c r="D58">
-        <v>-0.03480524115994092</v>
+        <v>0.05716131513025166</v>
       </c>
       <c r="E58">
-        <v>0.03714624314187225</v>
+        <v>0.01192391572302919</v>
       </c>
       <c r="F58">
-        <v>0.0118290309009976</v>
+        <v>0.04293434259278647</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2145395689863687</v>
+        <v>-0.169517942648281</v>
       </c>
       <c r="C59">
-        <v>0.2418337095261054</v>
+        <v>-0.01131334018455431</v>
       </c>
       <c r="D59">
-        <v>0.04674789790066351</v>
+        <v>-0.2328556239482191</v>
       </c>
       <c r="E59">
-        <v>-0.00628464997245552</v>
+        <v>-0.04621318328943885</v>
       </c>
       <c r="F59">
-        <v>-0.07979128969241774</v>
+        <v>0.02947413335372158</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2331716375169699</v>
+        <v>-0.2393525993780647</v>
       </c>
       <c r="C60">
-        <v>-0.1330594789751997</v>
+        <v>0.004317172005633714</v>
       </c>
       <c r="D60">
-        <v>0.06903756631504857</v>
+        <v>0.05515951164264758</v>
       </c>
       <c r="E60">
-        <v>-0.1405934557413517</v>
+        <v>0.01445272833060286</v>
       </c>
       <c r="F60">
-        <v>-0.01552335245054812</v>
+        <v>0.05071658354238056</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09110443861257188</v>
+        <v>-0.08772925713644378</v>
       </c>
       <c r="C61">
-        <v>-0.06242816333899461</v>
+        <v>-0.015788893624371</v>
       </c>
       <c r="D61">
-        <v>0.06641236656985779</v>
+        <v>0.09931461702561961</v>
       </c>
       <c r="E61">
-        <v>0.1194120281116455</v>
+        <v>0.03212756188782877</v>
       </c>
       <c r="F61">
-        <v>0.02968900374317585</v>
+        <v>-0.02559408461732602</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1347446645412499</v>
+        <v>-0.1682621082066308</v>
       </c>
       <c r="C62">
-        <v>-0.0825540109802383</v>
+        <v>-0.01633183687131644</v>
       </c>
       <c r="D62">
-        <v>0.008362197845290246</v>
+        <v>0.020085651344543</v>
       </c>
       <c r="E62">
-        <v>-0.04963646628462442</v>
+        <v>0.03671566037532875</v>
       </c>
       <c r="F62">
-        <v>0.08281123710658077</v>
+        <v>-0.01167987029689245</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04334392760993509</v>
+        <v>-0.04345734644798108</v>
       </c>
       <c r="C63">
-        <v>-0.0189283450339448</v>
+        <v>-0.00482812518815532</v>
       </c>
       <c r="D63">
-        <v>0.006333244660377847</v>
+        <v>0.04303530619106791</v>
       </c>
       <c r="E63">
-        <v>0.06230094388726778</v>
+        <v>0.01287780099580291</v>
       </c>
       <c r="F63">
-        <v>0.0452628563581149</v>
+        <v>-0.01339855645390015</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09871331281220044</v>
+        <v>-0.11250328718952</v>
       </c>
       <c r="C64">
-        <v>-0.06042321489820263</v>
+        <v>-0.01235930709219851</v>
       </c>
       <c r="D64">
-        <v>0.005130091970877421</v>
+        <v>0.03766992190720854</v>
       </c>
       <c r="E64">
-        <v>0.04842615970445314</v>
+        <v>0.0188635424749506</v>
       </c>
       <c r="F64">
-        <v>0.01033309250088039</v>
+        <v>-0.01599217702535615</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1175049183651053</v>
+        <v>-0.1404152077093222</v>
       </c>
       <c r="C65">
-        <v>-0.03074007777297219</v>
+        <v>-0.0302114581372518</v>
       </c>
       <c r="D65">
-        <v>0.02295898473324152</v>
+        <v>-0.04149880436863308</v>
       </c>
       <c r="E65">
-        <v>0.06541084127806175</v>
+        <v>0.005092088298336882</v>
       </c>
       <c r="F65">
-        <v>0.08019902599493643</v>
+        <v>-0.04206287765979132</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1082304390033831</v>
+        <v>-0.1361674924865617</v>
       </c>
       <c r="C66">
-        <v>-0.1080101158350577</v>
+        <v>-0.01825713577318526</v>
       </c>
       <c r="D66">
-        <v>0.1123799594764952</v>
+        <v>0.126356686556784</v>
       </c>
       <c r="E66">
-        <v>0.09436143181403903</v>
+        <v>0.05882735166618376</v>
       </c>
       <c r="F66">
-        <v>0.09439841644164046</v>
+        <v>-0.04394636223038204</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08644255726270939</v>
+        <v>-0.06594438944029064</v>
       </c>
       <c r="C67">
-        <v>-0.07927639603134931</v>
+        <v>-0.0044808323563368</v>
       </c>
       <c r="D67">
-        <v>-0.0208928094066366</v>
+        <v>0.0578113730387766</v>
       </c>
       <c r="E67">
-        <v>-0.09539473916669713</v>
+        <v>0.02070559760810927</v>
       </c>
       <c r="F67">
-        <v>0.02498997743567088</v>
+        <v>0.04311188052920929</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1278461843947622</v>
+        <v>-0.1096911743155089</v>
       </c>
       <c r="C68">
-        <v>0.272710505307753</v>
+        <v>-0.02041001915349141</v>
       </c>
       <c r="D68">
-        <v>0.01965304677379049</v>
+        <v>-0.2772288842753997</v>
       </c>
       <c r="E68">
-        <v>0.03040305426834867</v>
+        <v>-0.08577331699007752</v>
       </c>
       <c r="F68">
-        <v>0.02710723504960764</v>
+        <v>-0.05023126941295927</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04337690817046903</v>
+        <v>-0.04081240150721914</v>
       </c>
       <c r="C69">
-        <v>-0.01876822238238007</v>
+        <v>-0.001099201937865457</v>
       </c>
       <c r="D69">
-        <v>-0.01262150149199383</v>
+        <v>0.009567722260593152</v>
       </c>
       <c r="E69">
-        <v>-0.01733666980202248</v>
+        <v>0.02563467687419676</v>
       </c>
       <c r="F69">
-        <v>0.05567365649539424</v>
+        <v>0.01686311815065784</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06367565915867228</v>
+        <v>-0.06648084565289709</v>
       </c>
       <c r="C70">
-        <v>-0.06414965637302539</v>
+        <v>0.02670776613759451</v>
       </c>
       <c r="D70">
-        <v>0.05990598485978903</v>
+        <v>0.0009212457857462747</v>
       </c>
       <c r="E70">
-        <v>-0.01908672192997675</v>
+        <v>-0.04725476363376246</v>
       </c>
       <c r="F70">
-        <v>0.03969833931889669</v>
+        <v>0.3461150899358704</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1447153073899183</v>
+        <v>-0.1283353587326608</v>
       </c>
       <c r="C71">
-        <v>0.2776787950442087</v>
+        <v>-0.02365571191986853</v>
       </c>
       <c r="D71">
-        <v>0.01083994290482721</v>
+        <v>-0.292180678594668</v>
       </c>
       <c r="E71">
-        <v>0.04169913023887018</v>
+        <v>-0.0947455559870958</v>
       </c>
       <c r="F71">
-        <v>0.02242901901470151</v>
+        <v>-0.05262603102359076</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1273172129668515</v>
+        <v>-0.1381563057277763</v>
       </c>
       <c r="C72">
-        <v>-0.03024082102851415</v>
+        <v>-0.02403788492278647</v>
       </c>
       <c r="D72">
-        <v>0.01316314198552891</v>
+        <v>0.01182346421653118</v>
       </c>
       <c r="E72">
-        <v>0.01477775259204423</v>
+        <v>0.04369112184820025</v>
       </c>
       <c r="F72">
-        <v>0.07936122577054129</v>
+        <v>-0.02612712835926056</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2111355637893273</v>
+        <v>-0.2102815705204734</v>
       </c>
       <c r="C73">
-        <v>-0.1299590377455984</v>
+        <v>-0.01185378264548377</v>
       </c>
       <c r="D73">
-        <v>0.1240067970376045</v>
+        <v>0.02745656304247683</v>
       </c>
       <c r="E73">
-        <v>-0.4635530583881819</v>
+        <v>0.07517375451702177</v>
       </c>
       <c r="F73">
-        <v>-0.1466242675117725</v>
+        <v>-0.02127411199342407</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08248689005856331</v>
+        <v>-0.09362695009324627</v>
       </c>
       <c r="C74">
-        <v>-0.08755199918439945</v>
+        <v>-0.01161394665039905</v>
       </c>
       <c r="D74">
-        <v>0.003611832845226353</v>
+        <v>0.03089092235712427</v>
       </c>
       <c r="E74">
-        <v>-0.05073094693091545</v>
+        <v>0.0520842598646798</v>
       </c>
       <c r="F74">
-        <v>0.04892663130777915</v>
+        <v>-0.04016081384457053</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08564034398774256</v>
+        <v>-0.1294411786527522</v>
       </c>
       <c r="C75">
-        <v>-0.06314559116444309</v>
+        <v>-0.02577739588739412</v>
       </c>
       <c r="D75">
-        <v>0.004521656303953436</v>
+        <v>0.04083720119953978</v>
       </c>
       <c r="E75">
-        <v>-0.0170741218453148</v>
+        <v>0.05863959113561328</v>
       </c>
       <c r="F75">
-        <v>0.01794880395762695</v>
+        <v>-0.004702908741067797</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.08423510013946021</v>
+        <v>-0.009592676507443115</v>
       </c>
       <c r="C76">
-        <v>-0.08479178562714071</v>
+        <v>-0.00215440703295377</v>
       </c>
       <c r="D76">
-        <v>-6.570262839384698e-05</v>
+        <v>0.004722556988124382</v>
       </c>
       <c r="E76">
-        <v>-0.0598546280144534</v>
+        <v>0.01015271482707978</v>
       </c>
       <c r="F76">
-        <v>-0.01359017343397896</v>
+        <v>-0.003513007158602405</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06931854014238518</v>
+        <v>-0.08220604315584767</v>
       </c>
       <c r="C77">
-        <v>-0.0163703898430585</v>
+        <v>-0.01287368694798371</v>
       </c>
       <c r="D77">
-        <v>0.04518968006698012</v>
+        <v>0.09486156395847108</v>
       </c>
       <c r="E77">
-        <v>0.2924440040774278</v>
+        <v>0.03159898219230211</v>
       </c>
       <c r="F77">
-        <v>-0.05760494748544101</v>
+        <v>-0.04430684863849809</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.2042143935390088</v>
+        <v>-0.1119080441195566</v>
       </c>
       <c r="C78">
-        <v>-0.1330997392863724</v>
+        <v>-0.04496427055558526</v>
       </c>
       <c r="D78">
-        <v>-0.1665205357997263</v>
+        <v>0.1169943340723022</v>
       </c>
       <c r="E78">
-        <v>0.2786515968718484</v>
+        <v>0.08986506622926077</v>
       </c>
       <c r="F78">
-        <v>-0.6742112553179119</v>
+        <v>-0.08360690927428856</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1288204414583988</v>
+        <v>-0.1620199809038228</v>
       </c>
       <c r="C79">
-        <v>-0.08087486695939569</v>
+        <v>-0.01978509113847317</v>
       </c>
       <c r="D79">
-        <v>-0.007810732473592652</v>
+        <v>0.02547288337098525</v>
       </c>
       <c r="E79">
-        <v>-0.01556352623214966</v>
+        <v>0.0480435567821965</v>
       </c>
       <c r="F79">
-        <v>0.04901470956042388</v>
+        <v>-0.003839336544367123</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.05176587013120047</v>
+        <v>-0.0815053238372396</v>
       </c>
       <c r="C80">
-        <v>-0.03136056850502147</v>
+        <v>0.001086221118254114</v>
       </c>
       <c r="D80">
-        <v>0.06989209197981816</v>
+        <v>0.05035398405952082</v>
       </c>
       <c r="E80">
-        <v>-0.007796866538566132</v>
+        <v>0.02440510797149217</v>
       </c>
       <c r="F80">
-        <v>-0.01729827165332214</v>
+        <v>0.01259960579720029</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1218991994831165</v>
+        <v>-0.1216786731670251</v>
       </c>
       <c r="C81">
-        <v>-0.05309537263063121</v>
+        <v>-0.029534855317686</v>
       </c>
       <c r="D81">
-        <v>-0.009664102214767212</v>
+        <v>0.03119424190510019</v>
       </c>
       <c r="E81">
-        <v>0.02722919218703597</v>
+        <v>0.05936831015041266</v>
       </c>
       <c r="F81">
-        <v>0.09276301876843722</v>
+        <v>0.006689338638470045</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1169876753908208</v>
+        <v>-0.1617491914105983</v>
       </c>
       <c r="C82">
-        <v>-0.05901430768697127</v>
+        <v>-0.02022599370671544</v>
       </c>
       <c r="D82">
-        <v>0.002188057038314954</v>
+        <v>0.02432559923170251</v>
       </c>
       <c r="E82">
-        <v>-0.03632270882157768</v>
+        <v>0.0352990857267924</v>
       </c>
       <c r="F82">
-        <v>0.07617512449491835</v>
+        <v>-0.04943132432612868</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0766285088979832</v>
+        <v>-0.06779533565126152</v>
       </c>
       <c r="C83">
-        <v>-0.0767858941194391</v>
+        <v>-0.004919146061490727</v>
       </c>
       <c r="D83">
-        <v>-0.0001549934862827976</v>
+        <v>0.04266655307043901</v>
       </c>
       <c r="E83">
-        <v>-0.008580745269639856</v>
+        <v>0.001525382939514054</v>
       </c>
       <c r="F83">
-        <v>0.06928721543047855</v>
+        <v>0.02982372582690281</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.03427931769538888</v>
+        <v>-0.06101988396028255</v>
       </c>
       <c r="C84">
-        <v>0.05750225387471509</v>
+        <v>-0.01219741804457838</v>
       </c>
       <c r="D84">
-        <v>0.03392403413721208</v>
+        <v>0.05690009869062367</v>
       </c>
       <c r="E84">
-        <v>0.1211176469890613</v>
+        <v>-0.004363106371736405</v>
       </c>
       <c r="F84">
-        <v>-0.1317460718353341</v>
+        <v>-0.01389321756269395</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1193398693648531</v>
+        <v>-0.137145247567688</v>
       </c>
       <c r="C85">
-        <v>-0.05812310684754084</v>
+        <v>-0.02514573439760422</v>
       </c>
       <c r="D85">
-        <v>0.0111547326002216</v>
+        <v>0.02393933845263857</v>
       </c>
       <c r="E85">
-        <v>-0.03319847761088975</v>
+        <v>0.04064779853833937</v>
       </c>
       <c r="F85">
-        <v>0.06256812584396886</v>
+        <v>-0.03881664838570185</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0909853343670067</v>
+        <v>-0.09964134914049602</v>
       </c>
       <c r="C86">
-        <v>-0.0183164404293428</v>
+        <v>0.006562929899021539</v>
       </c>
       <c r="D86">
-        <v>-0.01472023965661692</v>
+        <v>0.01058706869446463</v>
       </c>
       <c r="E86">
-        <v>0.0390576606623526</v>
+        <v>0.1296591887130152</v>
       </c>
       <c r="F86">
-        <v>-0.1400751486405258</v>
+        <v>0.8240189438823216</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1205996439372357</v>
+        <v>-0.103168219964368</v>
       </c>
       <c r="C87">
-        <v>-0.0671818024538207</v>
+        <v>-0.0262723454953737</v>
       </c>
       <c r="D87">
-        <v>-0.01096359686074735</v>
+        <v>0.06660183313091422</v>
       </c>
       <c r="E87">
-        <v>0.0701635584036511</v>
+        <v>-0.05396492900698112</v>
       </c>
       <c r="F87">
-        <v>0.02052812666889339</v>
+        <v>-0.09302621226106315</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06202858502450144</v>
+        <v>-0.06103246725638675</v>
       </c>
       <c r="C88">
-        <v>-0.0640071331787507</v>
+        <v>-0.003964169392758825</v>
       </c>
       <c r="D88">
-        <v>0.0382180228379916</v>
+        <v>0.05689224782302313</v>
       </c>
       <c r="E88">
-        <v>0.008252869255857142</v>
+        <v>0.0237002312587349</v>
       </c>
       <c r="F88">
-        <v>0.02248347884926991</v>
+        <v>-0.007531177439946571</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2375480017908985</v>
+        <v>-0.1312667115654634</v>
       </c>
       <c r="C89">
-        <v>0.3668744909108677</v>
+        <v>-0.003296971765419926</v>
       </c>
       <c r="D89">
-        <v>-0.0406974531491398</v>
+        <v>-0.2833655162741138</v>
       </c>
       <c r="E89">
-        <v>-0.01537579752596576</v>
+        <v>-0.09318102380500173</v>
       </c>
       <c r="F89">
-        <v>-0.03591644776544312</v>
+        <v>-0.03527032322230338</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1564699040089755</v>
+        <v>-0.1397802421911412</v>
       </c>
       <c r="C90">
-        <v>0.2573751440464467</v>
+        <v>-0.01994920498520138</v>
       </c>
       <c r="D90">
-        <v>0.01510522501985456</v>
+        <v>-0.279794099201036</v>
       </c>
       <c r="E90">
-        <v>0.00624156429224574</v>
+        <v>-0.1076854714917288</v>
       </c>
       <c r="F90">
-        <v>-0.009687346001937215</v>
+        <v>-0.04007946998652514</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07078128674902764</v>
+        <v>-0.115943634349396</v>
       </c>
       <c r="C91">
-        <v>-0.05882268172029904</v>
+        <v>-0.01573526991957902</v>
       </c>
       <c r="D91">
-        <v>-0.01138413913403763</v>
+        <v>0.0060519396510112</v>
       </c>
       <c r="E91">
-        <v>-0.002868336898342621</v>
+        <v>0.05881970833820067</v>
       </c>
       <c r="F91">
-        <v>-0.008805976040901562</v>
+        <v>0.03186240485642584</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1749985781373971</v>
+        <v>-0.1432667064929821</v>
       </c>
       <c r="C92">
-        <v>0.2973959588282771</v>
+        <v>-0.01058890838710262</v>
       </c>
       <c r="D92">
-        <v>-0.02105869373116577</v>
+        <v>-0.3148748780097477</v>
       </c>
       <c r="E92">
-        <v>0.02965516355609145</v>
+        <v>-0.1028071596961571</v>
       </c>
       <c r="F92">
-        <v>-0.03722889173600345</v>
+        <v>-0.0321827260104569</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1731728572731704</v>
+        <v>-0.1441461015698114</v>
       </c>
       <c r="C93">
-        <v>0.3057853014427783</v>
+        <v>-0.01585854853489803</v>
       </c>
       <c r="D93">
-        <v>0.0457560699128419</v>
+        <v>-0.2806539376032215</v>
       </c>
       <c r="E93">
-        <v>0.008182549034686414</v>
+        <v>-0.07178541305900163</v>
       </c>
       <c r="F93">
-        <v>0.04047136423899508</v>
+        <v>-0.03081958988754087</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1138689760431992</v>
+        <v>-0.133304810603868</v>
       </c>
       <c r="C94">
-        <v>-0.08176524657130071</v>
+        <v>-0.02355429673647791</v>
       </c>
       <c r="D94">
-        <v>-0.008476402839792707</v>
+        <v>0.05306786962515849</v>
       </c>
       <c r="E94">
-        <v>-0.0499129792917544</v>
+        <v>0.0618305835808377</v>
       </c>
       <c r="F94">
-        <v>0.006003165949303722</v>
+        <v>-0.02334709118059839</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.151703289344058</v>
+        <v>-0.1284732178758056</v>
       </c>
       <c r="C95">
-        <v>-0.05960184657837277</v>
+        <v>-0.007146908352851214</v>
       </c>
       <c r="D95">
-        <v>-0.00975251741000366</v>
+        <v>0.08268937392609903</v>
       </c>
       <c r="E95">
-        <v>0.03334623548379449</v>
+        <v>0.04001172407423956</v>
       </c>
       <c r="F95">
-        <v>-0.01379474084036052</v>
+        <v>0.01122602353714303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09498360797988026</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9894244088306758</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.009506648931614042</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06034776726758351</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05110762284102417</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1128062904325402</v>
+        <v>-0.1865953666831666</v>
       </c>
       <c r="C97">
-        <v>0.02106744980991202</v>
+        <v>0.01316160030665294</v>
       </c>
       <c r="D97">
-        <v>-0.03741125223559923</v>
+        <v>-0.009141138171439576</v>
       </c>
       <c r="E97">
-        <v>0.08755631872040735</v>
+        <v>0.01168082447715147</v>
       </c>
       <c r="F97">
-        <v>0.5604904161123558</v>
+        <v>0.1718523519594623</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.257565071070593</v>
+        <v>-0.2077994886854341</v>
       </c>
       <c r="C98">
-        <v>-0.128909469925289</v>
+        <v>-0.007717513135854839</v>
       </c>
       <c r="D98">
-        <v>-0.04773617323402295</v>
+        <v>0.01622056477458588</v>
       </c>
       <c r="E98">
-        <v>-0.2672847805230851</v>
+        <v>-0.08476321587156219</v>
       </c>
       <c r="F98">
-        <v>-0.04449634985870415</v>
+        <v>0.1434147631741433</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07682309218113384</v>
+        <v>-0.05886419716845465</v>
       </c>
       <c r="C99">
-        <v>-0.05834958379061288</v>
+        <v>0.002833595735887643</v>
       </c>
       <c r="D99">
-        <v>-0.01444839798044283</v>
+        <v>0.02877670278344086</v>
       </c>
       <c r="E99">
-        <v>-0.04051305115765428</v>
+        <v>0.02223246031853914</v>
       </c>
       <c r="F99">
-        <v>-0.02055615421264251</v>
+        <v>-0.005121707283038115</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1227748441877728</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04639620077041214</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3281600858989437</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9052793809737747</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05681926568684983</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04297524830803566</v>
+        <v>-0.02771530866861749</v>
       </c>
       <c r="C101">
-        <v>-0.03069977824462084</v>
+        <v>-0.009449963951678754</v>
       </c>
       <c r="D101">
-        <v>0.01565681684647801</v>
+        <v>0.02473378176448681</v>
       </c>
       <c r="E101">
-        <v>0.05084782481684669</v>
+        <v>0.008050484011690191</v>
       </c>
       <c r="F101">
-        <v>0.01461929988243542</v>
+        <v>0.008779599975208953</v>
       </c>
     </row>
     <row r="102" spans="1:6">
